--- a/Code/Results/Cases/Case_4_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.174575109884586</v>
+        <v>0.924095199937824</v>
       </c>
       <c r="C2">
-        <v>0.3731141760265047</v>
+        <v>0.2797067832110969</v>
       </c>
       <c r="D2">
-        <v>0.2012834551589151</v>
+        <v>0.07882263183346083</v>
       </c>
       <c r="E2">
-        <v>0.04677358743010362</v>
+        <v>0.126489902436834</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4601388506224424</v>
+        <v>0.5774085957165198</v>
       </c>
       <c r="H2">
-        <v>0.3312935286537737</v>
+        <v>0.6919621358620986</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1499908166502664</v>
+        <v>0.1882037178545133</v>
       </c>
       <c r="M2">
-        <v>0.3729722148054364</v>
+        <v>0.2088288491555161</v>
       </c>
       <c r="N2">
-        <v>0.7388677167874675</v>
+        <v>1.319205680391462</v>
       </c>
       <c r="O2">
-        <v>1.618882085958319</v>
+        <v>2.516099098855335</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.889936649985827</v>
+        <v>0.8410414654981082</v>
       </c>
       <c r="C3">
-        <v>0.3458725946157841</v>
+        <v>0.2705063221765016</v>
       </c>
       <c r="D3">
-        <v>0.1745599035220238</v>
+        <v>0.07146014508909104</v>
       </c>
       <c r="E3">
-        <v>0.04840268122174951</v>
+        <v>0.1276255021204991</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4243452469559941</v>
+        <v>0.5736217929417933</v>
       </c>
       <c r="H3">
-        <v>0.3206718315800146</v>
+        <v>0.6944288376109995</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1358904782920405</v>
+        <v>0.1855205434652305</v>
       </c>
       <c r="M3">
-        <v>0.3251319550139797</v>
+        <v>0.1956210123980142</v>
       </c>
       <c r="N3">
-        <v>0.7667574065033556</v>
+        <v>1.331747790706743</v>
       </c>
       <c r="O3">
-        <v>1.520358877992777</v>
+        <v>2.512923386086953</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.715593823864566</v>
+        <v>0.7901881031667415</v>
       </c>
       <c r="C4">
-        <v>0.3291134219276586</v>
+        <v>0.2648167793937546</v>
       </c>
       <c r="D4">
-        <v>0.1583025729050433</v>
+        <v>0.06697365006199618</v>
       </c>
       <c r="E4">
-        <v>0.04946655507276976</v>
+        <v>0.128365758579517</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.403390377423662</v>
+        <v>0.5717304701314561</v>
       </c>
       <c r="H4">
-        <v>0.3147791956344008</v>
+        <v>0.6962938461888086</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1273913624506875</v>
+        <v>0.1839638322917736</v>
       </c>
       <c r="M4">
-        <v>0.2958979730757676</v>
+        <v>0.187576668066221</v>
       </c>
       <c r="N4">
-        <v>0.7849226244273808</v>
+        <v>1.339954314033129</v>
       </c>
       <c r="O4">
-        <v>1.46333868604799</v>
+        <v>2.512615449442706</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.644629684365498</v>
+        <v>0.7695018796119655</v>
       </c>
       <c r="C5">
-        <v>0.3222743838137347</v>
+        <v>0.2624882315663797</v>
       </c>
       <c r="D5">
-        <v>0.1517109811586295</v>
+        <v>0.06515394383714579</v>
       </c>
       <c r="E5">
-        <v>0.04991581185006932</v>
+        <v>0.128678241657938</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3950915251117237</v>
+        <v>0.5710686682970163</v>
       </c>
       <c r="H5">
-        <v>0.3125285467049537</v>
+        <v>0.6971419998727555</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1239651633393137</v>
+        <v>0.1833523414498828</v>
       </c>
       <c r="M5">
-        <v>0.2840151358613312</v>
+        <v>0.1843151571724704</v>
       </c>
       <c r="N5">
-        <v>0.7925796187576211</v>
+        <v>1.3434257426565</v>
       </c>
       <c r="O5">
-        <v>1.440924692093688</v>
+        <v>2.512902570839856</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.63285038479188</v>
+        <v>0.7660692151328874</v>
       </c>
       <c r="C6">
-        <v>0.3211381542729725</v>
+        <v>0.2621009776851224</v>
       </c>
       <c r="D6">
-        <v>0.1506183402316026</v>
+        <v>0.06485230108532392</v>
       </c>
       <c r="E6">
-        <v>0.04999135219212558</v>
+        <v>0.1287307832281361</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3937275554370103</v>
+        <v>0.5709653511059685</v>
       </c>
       <c r="H6">
-        <v>0.3121637132283155</v>
+        <v>0.6972881598055238</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1233984221824613</v>
+        <v>0.1832521875360982</v>
       </c>
       <c r="M6">
-        <v>0.282043686124176</v>
+        <v>0.183774595740843</v>
       </c>
       <c r="N6">
-        <v>0.793866225485619</v>
+        <v>1.34400985543013</v>
       </c>
       <c r="O6">
-        <v>1.437251073991263</v>
+        <v>2.512975159563041</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.714636477026232</v>
+        <v>0.7899089703362847</v>
       </c>
       <c r="C7">
-        <v>0.3290212285497631</v>
+        <v>0.2647854161249796</v>
       </c>
       <c r="D7">
-        <v>0.1582135470359844</v>
+        <v>0.06694907413731244</v>
       </c>
       <c r="E7">
-        <v>0.0494725506134408</v>
+        <v>0.1283699290001072</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4032775041946053</v>
+        <v>0.5717211039996641</v>
       </c>
       <c r="H7">
-        <v>0.3147482423341614</v>
+        <v>0.6963049277470503</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1273450080216989</v>
+        <v>0.1839554927895648</v>
       </c>
       <c r="M7">
-        <v>0.2957376008992014</v>
+        <v>0.1875326146124152</v>
       </c>
       <c r="N7">
-        <v>0.7850248680372651</v>
+        <v>1.340000615806893</v>
       </c>
       <c r="O7">
-        <v>1.463033139912937</v>
+        <v>2.512617651399324</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.076327559068318</v>
+        <v>0.8954295218493371</v>
       </c>
       <c r="C8">
-        <v>0.363727245529418</v>
+        <v>0.276542942164582</v>
       </c>
       <c r="D8">
-        <v>0.1920349943538469</v>
+        <v>0.07627696748198787</v>
       </c>
       <c r="E8">
-        <v>0.04732193018334208</v>
+        <v>0.1268725408429585</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4475746674375642</v>
+        <v>0.5760127786172689</v>
       </c>
       <c r="H8">
-        <v>0.3274959256020793</v>
+        <v>0.6927399342349219</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1450944980639122</v>
+        <v>0.1872597531980702</v>
       </c>
       <c r="M8">
-        <v>0.3564447057616889</v>
+        <v>0.2042613447965991</v>
       </c>
       <c r="N8">
-        <v>0.748263610232506</v>
+        <v>1.323425296449237</v>
       </c>
       <c r="O8">
-        <v>1.584158713229499</v>
+        <v>2.514663148161333</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.790231611477395</v>
+        <v>1.103437601374935</v>
       </c>
       <c r="C9">
-        <v>0.4315933963178793</v>
+        <v>0.299273044204682</v>
       </c>
       <c r="D9">
-        <v>0.259777927037959</v>
+        <v>0.09484041228483875</v>
       </c>
       <c r="E9">
-        <v>0.04362198759490177</v>
+        <v>0.1242767632346302</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5433540094679046</v>
+        <v>0.5878789111850011</v>
       </c>
       <c r="H9">
-        <v>0.3578472893356945</v>
+        <v>0.6885290443847083</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1812852060709957</v>
+        <v>0.1944576435740828</v>
       </c>
       <c r="M9">
-        <v>0.4768478407414989</v>
+        <v>0.2375776342353149</v>
       </c>
       <c r="N9">
-        <v>0.6847748225836909</v>
+        <v>1.294930137318012</v>
       </c>
       <c r="O9">
-        <v>1.851697641635894</v>
+        <v>2.531719269780979</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.319457100119337</v>
+        <v>1.256877612054382</v>
       </c>
       <c r="C10">
-        <v>0.4814442094235858</v>
+        <v>0.3157678197280802</v>
       </c>
       <c r="D10">
-        <v>0.3107428853187315</v>
+        <v>0.1086471137551541</v>
       </c>
       <c r="E10">
-        <v>0.04123740291551492</v>
+        <v>0.122576503346794</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6203403250301704</v>
+        <v>0.5987136755283018</v>
       </c>
       <c r="H10">
-        <v>0.3839450145270433</v>
+        <v>0.6871301786048463</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2089062739690917</v>
+        <v>0.2001819588782325</v>
       </c>
       <c r="M10">
-        <v>0.5665057998069614</v>
+        <v>0.262360020095997</v>
       </c>
       <c r="N10">
-        <v>0.643872376406641</v>
+        <v>1.27643472567506</v>
       </c>
       <c r="O10">
-        <v>2.070185717648343</v>
+        <v>2.55223199841933</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.561697985016849</v>
+        <v>1.326807028301175</v>
       </c>
       <c r="C11">
-        <v>0.5041467537359949</v>
+        <v>0.323226007018377</v>
       </c>
       <c r="D11">
-        <v>0.3342657923043362</v>
+        <v>0.1149652884714527</v>
       </c>
       <c r="E11">
-        <v>0.04022932871433937</v>
+        <v>0.1218477621631768</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6570823975270343</v>
+        <v>0.6041053068771447</v>
       </c>
       <c r="H11">
-        <v>0.3967700123987186</v>
+        <v>0.686861909193496</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2217406344678921</v>
+        <v>0.2028804385164307</v>
       </c>
       <c r="M11">
-        <v>0.6076426614920578</v>
+        <v>0.2736990962176478</v>
       </c>
       <c r="N11">
-        <v>0.6266305656277282</v>
+        <v>1.268549729037147</v>
       </c>
       <c r="O11">
-        <v>2.175208498793921</v>
+        <v>2.563303521976252</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.653683269237831</v>
+        <v>1.353304952415044</v>
       </c>
       <c r="C12">
-        <v>0.5127495467870631</v>
+        <v>0.3260435700693165</v>
       </c>
       <c r="D12">
-        <v>0.343228929923086</v>
+        <v>0.1173632179967399</v>
       </c>
       <c r="E12">
-        <v>0.03985900496917338</v>
+        <v>0.1215782252691779</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.671268332692037</v>
+        <v>0.6062137332341138</v>
       </c>
       <c r="H12">
-        <v>0.4017749905202948</v>
+        <v>0.6868132465388754</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.226643371166773</v>
+        <v>0.203915820268108</v>
       </c>
       <c r="M12">
-        <v>0.6232784307885595</v>
+        <v>0.2780021538451223</v>
       </c>
       <c r="N12">
-        <v>0.6203085627922675</v>
+        <v>1.265639868302046</v>
       </c>
       <c r="O12">
-        <v>2.215865191490224</v>
+        <v>2.567746674955259</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.633860643315643</v>
+        <v>1.347597408061858</v>
       </c>
       <c r="C13">
-        <v>0.5108964845092601</v>
+        <v>0.3254370576690917</v>
       </c>
       <c r="D13">
-        <v>0.341295974655182</v>
+        <v>0.1168465421247333</v>
       </c>
       <c r="E13">
-        <v>0.03993824690011749</v>
+        <v>0.1216359893948011</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.668200598721171</v>
+        <v>0.6057566751496495</v>
       </c>
       <c r="H13">
-        <v>0.4006902872080502</v>
+        <v>0.6868213731234079</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2255855174064436</v>
+        <v>0.2036922316171825</v>
       </c>
       <c r="M13">
-        <v>0.619908274468763</v>
+        <v>0.277075007842555</v>
       </c>
       <c r="N13">
-        <v>0.6216607282947848</v>
+        <v>1.266263178049371</v>
       </c>
       <c r="O13">
-        <v>2.207068315511123</v>
+        <v>2.566778610748145</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.569260345709495</v>
+        <v>1.328986692027854</v>
       </c>
       <c r="C14">
-        <v>0.5048543803900429</v>
+        <v>0.3234579446696841</v>
       </c>
       <c r="D14">
-        <v>0.3350020414686412</v>
+        <v>0.1151624599336571</v>
       </c>
       <c r="E14">
-        <v>0.04019863096088017</v>
+        <v>0.1218254585509522</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6582438712378433</v>
+        <v>0.6042774299563973</v>
       </c>
       <c r="H14">
-        <v>0.3971787320078448</v>
+        <v>0.6868568450145602</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2221431075898579</v>
+        <v>0.2029653492409267</v>
       </c>
       <c r="M14">
-        <v>0.6089278146407864</v>
+        <v>0.2740529282973867</v>
       </c>
       <c r="N14">
-        <v>0.6261062354996483</v>
+        <v>1.268308809571252</v>
       </c>
       <c r="O14">
-        <v>2.178535114331027</v>
+        <v>2.563664038183987</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.529725079525292</v>
+        <v>1.317589287404928</v>
       </c>
       <c r="C15">
-        <v>0.5011542459211</v>
+        <v>0.3222448045583235</v>
       </c>
       <c r="D15">
-        <v>0.3311542670862906</v>
+        <v>0.1141316105075703</v>
       </c>
       <c r="E15">
-        <v>0.040359621693832</v>
+        <v>0.1219423499086592</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6521813526350257</v>
+        <v>0.6033800453270999</v>
       </c>
       <c r="H15">
-        <v>0.3950474851574342</v>
+        <v>0.6868854648560614</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2200402061272513</v>
+        <v>0.2025218725958666</v>
       </c>
       <c r="M15">
-        <v>0.602209773701027</v>
+        <v>0.2722030084672156</v>
       </c>
       <c r="N15">
-        <v>0.6288565409201397</v>
+        <v>1.269571717466242</v>
       </c>
       <c r="O15">
-        <v>2.161175580410202</v>
+        <v>2.561788920004432</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.303659420763495</v>
+        <v>1.252310036525046</v>
       </c>
       <c r="C16">
-        <v>0.4799612356813157</v>
+        <v>0.3152794824583793</v>
       </c>
       <c r="D16">
-        <v>0.309212995468144</v>
+        <v>0.1082349587113498</v>
       </c>
       <c r="E16">
-        <v>0.04130485845216647</v>
+        <v>0.1226250273631129</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6179758709608336</v>
+        <v>0.5983706484236251</v>
       </c>
       <c r="H16">
-        <v>0.3831270025866615</v>
+        <v>0.6871551169939636</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.208073266793491</v>
+        <v>0.2000075027778081</v>
       </c>
       <c r="M16">
-        <v>0.5638251139078392</v>
+        <v>0.2616202833108616</v>
       </c>
       <c r="N16">
-        <v>0.645027543562577</v>
+        <v>1.276960666269936</v>
       </c>
       <c r="O16">
-        <v>2.063442011709412</v>
+        <v>2.551543497008623</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.165384912248442</v>
+        <v>1.212295356397703</v>
       </c>
       <c r="C17">
-        <v>0.4669679661787995</v>
+        <v>0.3109947442065675</v>
       </c>
       <c r="D17">
-        <v>0.2958441862838015</v>
+        <v>0.1046271358196265</v>
       </c>
       <c r="E17">
-        <v>0.0419046387051667</v>
+        <v>0.1230552745516249</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5974498953583662</v>
+        <v>0.595416216697302</v>
       </c>
       <c r="H17">
-        <v>0.376066108543057</v>
+        <v>0.6874148111188134</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2008036287166277</v>
+        <v>0.1984891711306744</v>
       </c>
       <c r="M17">
-        <v>0.540372539629054</v>
+        <v>0.2551447328972856</v>
       </c>
       <c r="N17">
-        <v>0.6553049915135816</v>
+        <v>1.281628945010539</v>
       </c>
       <c r="O17">
-        <v>2.004981080528751</v>
+        <v>2.54570422892877</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.085991135172378</v>
+        <v>1.189292173093975</v>
       </c>
       <c r="C18">
-        <v>0.4594968049660224</v>
+        <v>0.3085260156953495</v>
       </c>
       <c r="D18">
-        <v>0.2881862442782932</v>
+        <v>0.1025555358821322</v>
       </c>
       <c r="E18">
-        <v>0.04225681016814775</v>
+        <v>0.1233069506979394</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5858042439000855</v>
+        <v>0.5937604601929962</v>
       </c>
       <c r="H18">
-        <v>0.3720938421139977</v>
+        <v>0.6875988261564885</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.196647432710904</v>
+        <v>0.1976247613567352</v>
       </c>
       <c r="M18">
-        <v>0.5269157859667999</v>
+        <v>0.2514263403722197</v>
       </c>
       <c r="N18">
-        <v>0.6613440900913332</v>
+        <v>1.284363775325737</v>
       </c>
       <c r="O18">
-        <v>1.971881028303841</v>
+        <v>2.542509408329551</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.059132334718583</v>
+        <v>1.181505827328238</v>
       </c>
       <c r="C19">
-        <v>0.456967515910577</v>
+        <v>0.3076894199986384</v>
       </c>
       <c r="D19">
-        <v>0.2855985970760599</v>
+        <v>0.1018547333271016</v>
       </c>
       <c r="E19">
-        <v>0.042377273521919</v>
+        <v>0.1233928871345107</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5818880307879795</v>
+        <v>0.5932073246213037</v>
       </c>
       <c r="H19">
-        <v>0.3707638484463303</v>
+        <v>0.6876670810867154</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.195244413876722</v>
+        <v>0.197333616427116</v>
       </c>
       <c r="M19">
-        <v>0.5223649262624761</v>
+        <v>0.2501684233003019</v>
       </c>
       <c r="N19">
-        <v>0.6634104538384662</v>
+        <v>1.285298288378939</v>
       </c>
       <c r="O19">
-        <v>1.96076185259551</v>
+        <v>2.541455813607115</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.180089906721321</v>
+        <v>1.216553734274498</v>
       </c>
       <c r="C20">
-        <v>0.4683508763570501</v>
+        <v>0.3114513040512179</v>
       </c>
       <c r="D20">
-        <v>0.2972640166866256</v>
+        <v>0.1050108300343311</v>
       </c>
       <c r="E20">
-        <v>0.04184004383034789</v>
+        <v>0.1230090384144162</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5996181492064352</v>
+        <v>0.5957262119905664</v>
       </c>
       <c r="H20">
-        <v>0.3768084645135303</v>
+        <v>0.6873835805528046</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2015748681567118</v>
+        <v>0.1986498800005876</v>
       </c>
       <c r="M20">
-        <v>0.5428656840789188</v>
+        <v>0.2558334289915862</v>
       </c>
       <c r="N20">
-        <v>0.6541976385622803</v>
+        <v>1.281126848851883</v>
       </c>
       <c r="O20">
-        <v>2.011149457065187</v>
+        <v>2.546308876498301</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.588227800637981</v>
+        <v>1.33445265514797</v>
       </c>
       <c r="C21">
-        <v>0.5066289158714028</v>
+        <v>0.32403944103919</v>
       </c>
       <c r="D21">
-        <v>0.3368491585641635</v>
+        <v>0.1156569699299581</v>
       </c>
       <c r="E21">
-        <v>0.04012183695606364</v>
+        <v>0.1217696326544546</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.661160798600406</v>
+        <v>0.6047101076249675</v>
       </c>
       <c r="H21">
-        <v>0.3982060376516046</v>
+        <v>0.6868449897228857</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2231530369912207</v>
+        <v>0.203178485576629</v>
       </c>
       <c r="M21">
-        <v>0.6121514002381261</v>
+        <v>0.2749403384650222</v>
       </c>
       <c r="N21">
-        <v>0.6247947718063145</v>
+        <v>1.267705894956784</v>
       </c>
       <c r="O21">
-        <v>2.18689129649826</v>
+        <v>2.564572059286832</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.856469941485557</v>
+        <v>1.411605882030585</v>
       </c>
       <c r="C22">
-        <v>0.5316810017802993</v>
+        <v>0.3322274412425941</v>
       </c>
       <c r="D22">
-        <v>0.3630474902452789</v>
+        <v>0.1226461559016059</v>
       </c>
       <c r="E22">
-        <v>0.0390656021005551</v>
+        <v>0.120997035324188</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7029838578441883</v>
+        <v>0.6109706522229885</v>
       </c>
       <c r="H22">
-        <v>0.4130616482363791</v>
+        <v>0.6868014757281173</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2375061883441276</v>
+        <v>0.2062170049044312</v>
       </c>
       <c r="M22">
-        <v>0.6577764424541641</v>
+        <v>0.2874813075087488</v>
       </c>
       <c r="N22">
-        <v>0.6067909789424419</v>
+        <v>1.259377608257928</v>
       </c>
       <c r="O22">
-        <v>2.306957842668822</v>
+        <v>2.577969006641183</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.713153030917852</v>
+        <v>1.370419096376622</v>
       </c>
       <c r="C23">
-        <v>0.5183062270958771</v>
+        <v>0.3278609817402014</v>
       </c>
       <c r="D23">
-        <v>0.3490326311163159</v>
+        <v>0.1189130335504842</v>
       </c>
       <c r="E23">
-        <v>0.03962309746246806</v>
+        <v>0.1214059633594387</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6805068039325448</v>
+        <v>0.6075936257632009</v>
       </c>
       <c r="H23">
-        <v>0.4050492435909092</v>
+        <v>0.6867964749266804</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2298213507996394</v>
+        <v>0.2045880973723797</v>
       </c>
       <c r="M23">
-        <v>0.6333914462271366</v>
+        <v>0.2807831322068424</v>
       </c>
       <c r="N23">
-        <v>0.616285210601653</v>
+        <v>1.263782029842361</v>
       </c>
       <c r="O23">
-        <v>2.242372487524705</v>
+        <v>2.5706850090464</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.173441463687197</v>
+        <v>1.21462851595993</v>
       </c>
       <c r="C24">
-        <v>0.4677256664356264</v>
+        <v>0.3112449100769652</v>
       </c>
       <c r="D24">
-        <v>0.296622024768368</v>
+        <v>0.1048373538266816</v>
       </c>
       <c r="E24">
-        <v>0.041869224309111</v>
+        <v>0.1230299283110554</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.598637400710075</v>
+        <v>0.5955859298572364</v>
       </c>
       <c r="H24">
-        <v>0.3764725748225288</v>
+        <v>0.6873975917594635</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2012261187857689</v>
+        <v>0.1985771970426384</v>
       </c>
       <c r="M24">
-        <v>0.5417384516789028</v>
+        <v>0.2555220554926407</v>
       </c>
       <c r="N24">
-        <v>0.6546978672976422</v>
+        <v>1.281353687739319</v>
       </c>
       <c r="O24">
-        <v>2.008359151518334</v>
+        <v>2.546035009950856</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.596418092405372</v>
+        <v>1.047054510119096</v>
       </c>
       <c r="C25">
-        <v>0.4132439036335285</v>
+        <v>0.2931595183826801</v>
       </c>
       <c r="D25">
-        <v>0.2412670138755573</v>
+        <v>0.08978916972237982</v>
       </c>
       <c r="E25">
-        <v>0.04456569089503137</v>
+        <v>0.1249426074706568</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5163714138541593</v>
+        <v>0.584298054283849</v>
       </c>
       <c r="H25">
-        <v>0.34901021558629</v>
+        <v>0.6893705705227262</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1713278018810129</v>
+        <v>0.192433720287859</v>
       </c>
       <c r="M25">
-        <v>0.4440936064696785</v>
+        <v>0.2285106602816001</v>
       </c>
       <c r="N25">
-        <v>0.7009798913703307</v>
+        <v>1.302210073419943</v>
       </c>
       <c r="O25">
-        <v>1.775747673023204</v>
+        <v>2.525705578130641</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_243/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_243/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.924095199937824</v>
+        <v>2.174575109884586</v>
       </c>
       <c r="C2">
-        <v>0.2797067832110969</v>
+        <v>0.3731141760266041</v>
       </c>
       <c r="D2">
-        <v>0.07882263183346083</v>
+        <v>0.201283455158844</v>
       </c>
       <c r="E2">
-        <v>0.126489902436834</v>
+        <v>0.04677358743010185</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5774085957165198</v>
+        <v>0.4601388506223998</v>
       </c>
       <c r="H2">
-        <v>0.6919621358620986</v>
+        <v>0.3312935286537737</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1882037178545133</v>
+        <v>0.1499908166501598</v>
       </c>
       <c r="M2">
-        <v>0.2088288491555161</v>
+        <v>0.3729722148054577</v>
       </c>
       <c r="N2">
-        <v>1.319205680391462</v>
+        <v>0.7388677167874533</v>
       </c>
       <c r="O2">
-        <v>2.516099098855335</v>
+        <v>1.618882085958376</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8410414654981082</v>
+        <v>1.889936649985884</v>
       </c>
       <c r="C3">
-        <v>0.2705063221765016</v>
+        <v>0.3458725946155994</v>
       </c>
       <c r="D3">
-        <v>0.07146014508909104</v>
+        <v>0.1745599035218248</v>
       </c>
       <c r="E3">
-        <v>0.1276255021204991</v>
+        <v>0.04840268122176106</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5736217929417933</v>
+        <v>0.424345246955923</v>
       </c>
       <c r="H3">
-        <v>0.6944288376109995</v>
+        <v>0.3206718315799009</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1855205434652305</v>
+        <v>0.1358904782920547</v>
       </c>
       <c r="M3">
-        <v>0.1956210123980142</v>
+        <v>0.3251319550139584</v>
       </c>
       <c r="N3">
-        <v>1.331747790706743</v>
+        <v>0.7667574065034124</v>
       </c>
       <c r="O3">
-        <v>2.512923386086953</v>
+        <v>1.520358877992749</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7901881031667415</v>
+        <v>1.715593823864424</v>
       </c>
       <c r="C4">
-        <v>0.2648167793937546</v>
+        <v>0.3291134219276444</v>
       </c>
       <c r="D4">
-        <v>0.06697365006199618</v>
+        <v>0.1583025729048586</v>
       </c>
       <c r="E4">
-        <v>0.128365758579517</v>
+        <v>0.04946655507278175</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5717304701314561</v>
+        <v>0.403390377423591</v>
       </c>
       <c r="H4">
-        <v>0.6962938461888086</v>
+        <v>0.3147791956342587</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1839638322917736</v>
+        <v>0.1273913624507159</v>
       </c>
       <c r="M4">
-        <v>0.187576668066221</v>
+        <v>0.2958979730757463</v>
       </c>
       <c r="N4">
-        <v>1.339954314033129</v>
+        <v>0.7849226244273737</v>
       </c>
       <c r="O4">
-        <v>2.512615449442706</v>
+        <v>1.463338686048047</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7695018796119655</v>
+        <v>1.644629684365384</v>
       </c>
       <c r="C5">
-        <v>0.2624882315663797</v>
+        <v>0.322274383813749</v>
       </c>
       <c r="D5">
-        <v>0.06515394383714579</v>
+        <v>0.1517109811586295</v>
       </c>
       <c r="E5">
-        <v>0.128678241657938</v>
+        <v>0.04991581185005423</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5710686682970163</v>
+        <v>0.3950915251117948</v>
       </c>
       <c r="H5">
-        <v>0.6971419998727555</v>
+        <v>0.31252854670484</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1833523414498828</v>
+        <v>0.1239651633392995</v>
       </c>
       <c r="M5">
-        <v>0.1843151571724704</v>
+        <v>0.2840151358613312</v>
       </c>
       <c r="N5">
-        <v>1.3434257426565</v>
+        <v>0.7925796187575642</v>
       </c>
       <c r="O5">
-        <v>2.512902570839856</v>
+        <v>1.440924692093688</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7660692151328874</v>
+        <v>1.632850384791993</v>
       </c>
       <c r="C6">
-        <v>0.2621009776851224</v>
+        <v>0.3211381542730578</v>
       </c>
       <c r="D6">
-        <v>0.06485230108532392</v>
+        <v>0.1506183402316168</v>
       </c>
       <c r="E6">
-        <v>0.1287307832281361</v>
+        <v>0.0499913521921127</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5709653511059685</v>
+        <v>0.3937275554369251</v>
       </c>
       <c r="H6">
-        <v>0.6972881598055238</v>
+        <v>0.3121637132283155</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1832521875360982</v>
+        <v>0.1233984221824187</v>
       </c>
       <c r="M6">
-        <v>0.183774595740843</v>
+        <v>0.2820436861241902</v>
       </c>
       <c r="N6">
-        <v>1.34400985543013</v>
+        <v>0.7938662254856723</v>
       </c>
       <c r="O6">
-        <v>2.512975159563041</v>
+        <v>1.437251073991177</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7899089703362847</v>
+        <v>1.714636477026119</v>
       </c>
       <c r="C7">
-        <v>0.2647854161249796</v>
+        <v>0.3290212285494647</v>
       </c>
       <c r="D7">
-        <v>0.06694907413731244</v>
+        <v>0.1582135470359134</v>
       </c>
       <c r="E7">
-        <v>0.1283699290001072</v>
+        <v>0.04947255061342792</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5717211039996641</v>
+        <v>0.4032775041945342</v>
       </c>
       <c r="H7">
-        <v>0.6963049277470503</v>
+        <v>0.3147482423340477</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1839554927895648</v>
+        <v>0.1273450080215639</v>
       </c>
       <c r="M7">
-        <v>0.1875326146124152</v>
+        <v>0.295737600899173</v>
       </c>
       <c r="N7">
-        <v>1.340000615806893</v>
+        <v>0.7850248680372154</v>
       </c>
       <c r="O7">
-        <v>2.512617651399324</v>
+        <v>1.463033139912994</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8954295218493371</v>
+        <v>2.076327559068204</v>
       </c>
       <c r="C8">
-        <v>0.276542942164582</v>
+        <v>0.3637272455291765</v>
       </c>
       <c r="D8">
-        <v>0.07627696748198787</v>
+        <v>0.192034994353989</v>
       </c>
       <c r="E8">
-        <v>0.1268725408429585</v>
+        <v>0.04732193018335185</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5760127786172689</v>
+        <v>0.447574667437479</v>
       </c>
       <c r="H8">
-        <v>0.6927399342349219</v>
+        <v>0.3274959256020793</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1872597531980702</v>
+        <v>0.1450944980639832</v>
       </c>
       <c r="M8">
-        <v>0.2042613447965991</v>
+        <v>0.3564447057616889</v>
       </c>
       <c r="N8">
-        <v>1.323425296449237</v>
+        <v>0.7482636102324918</v>
       </c>
       <c r="O8">
-        <v>2.514663148161333</v>
+        <v>1.584158713229471</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.103437601374935</v>
+        <v>2.790231611477509</v>
       </c>
       <c r="C9">
-        <v>0.299273044204682</v>
+        <v>0.431593396317794</v>
       </c>
       <c r="D9">
-        <v>0.09484041228483875</v>
+        <v>0.2597779270380727</v>
       </c>
       <c r="E9">
-        <v>0.1242767632346302</v>
+        <v>0.04362198759491598</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5878789111850011</v>
+        <v>0.5433540094679188</v>
       </c>
       <c r="H9">
-        <v>0.6885290443847083</v>
+        <v>0.3578472893356945</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1944576435740828</v>
+        <v>0.1812852060709318</v>
       </c>
       <c r="M9">
-        <v>0.2375776342353149</v>
+        <v>0.4768478407415131</v>
       </c>
       <c r="N9">
-        <v>1.294930137318012</v>
+        <v>0.6847748225836909</v>
       </c>
       <c r="O9">
-        <v>2.531719269780979</v>
+        <v>1.851697641635894</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.256877612054382</v>
+        <v>3.31945710011945</v>
       </c>
       <c r="C10">
-        <v>0.3157678197280802</v>
+        <v>0.4814442094234437</v>
       </c>
       <c r="D10">
-        <v>0.1086471137551541</v>
+        <v>0.3107428853188594</v>
       </c>
       <c r="E10">
-        <v>0.122576503346794</v>
+        <v>0.04123740291548827</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5987136755283018</v>
+        <v>0.620340325030142</v>
       </c>
       <c r="H10">
-        <v>0.6871301786048463</v>
+        <v>0.383945014527157</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2001819588782325</v>
+        <v>0.2089062739690917</v>
       </c>
       <c r="M10">
-        <v>0.262360020095997</v>
+        <v>0.5665057998069614</v>
       </c>
       <c r="N10">
-        <v>1.27643472567506</v>
+        <v>0.6438723764066481</v>
       </c>
       <c r="O10">
-        <v>2.55223199841933</v>
+        <v>2.0701857176484</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.326807028301175</v>
+        <v>3.561697985016906</v>
       </c>
       <c r="C11">
-        <v>0.323226007018377</v>
+        <v>0.5041467537358812</v>
       </c>
       <c r="D11">
-        <v>0.1149652884714527</v>
+        <v>0.3342657923045209</v>
       </c>
       <c r="E11">
-        <v>0.1218477621631768</v>
+        <v>0.04022932871432694</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6041053068771447</v>
+        <v>0.6570823975269917</v>
       </c>
       <c r="H11">
-        <v>0.686861909193496</v>
+        <v>0.3967700123988323</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2028804385164307</v>
+        <v>0.2217406344679063</v>
       </c>
       <c r="M11">
-        <v>0.2736990962176478</v>
+        <v>0.6076426614920578</v>
       </c>
       <c r="N11">
-        <v>1.268549729037147</v>
+        <v>0.6266305656277282</v>
       </c>
       <c r="O11">
-        <v>2.563303521976252</v>
+        <v>2.175208498793978</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.353304952415044</v>
+        <v>3.653683269237717</v>
       </c>
       <c r="C12">
-        <v>0.3260435700693165</v>
+        <v>0.5127495467871768</v>
       </c>
       <c r="D12">
-        <v>0.1173632179967399</v>
+        <v>0.3432289299233702</v>
       </c>
       <c r="E12">
-        <v>0.1215782252691779</v>
+        <v>0.0398590049691574</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6062137332341138</v>
+        <v>0.6712683326920512</v>
       </c>
       <c r="H12">
-        <v>0.6868132465388754</v>
+        <v>0.4017749905202948</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.203915820268108</v>
+        <v>0.2266433711667588</v>
       </c>
       <c r="M12">
-        <v>0.2780021538451223</v>
+        <v>0.6232784307885595</v>
       </c>
       <c r="N12">
-        <v>1.265639868302046</v>
+        <v>0.6203085627922036</v>
       </c>
       <c r="O12">
-        <v>2.567746674955259</v>
+        <v>2.215865191490309</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.347597408061858</v>
+        <v>3.633860643315757</v>
       </c>
       <c r="C13">
-        <v>0.3254370576690917</v>
+        <v>0.5108964845092601</v>
       </c>
       <c r="D13">
-        <v>0.1168465421247333</v>
+        <v>0.3412959746551962</v>
       </c>
       <c r="E13">
-        <v>0.1216359893948011</v>
+        <v>0.03993824690012993</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6057566751496495</v>
+        <v>0.6682005987211284</v>
       </c>
       <c r="H13">
-        <v>0.6868213731234079</v>
+        <v>0.4006902872080502</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2036922316171825</v>
+        <v>0.2255855174064862</v>
       </c>
       <c r="M13">
-        <v>0.277075007842555</v>
+        <v>0.619908274468763</v>
       </c>
       <c r="N13">
-        <v>1.266263178049371</v>
+        <v>0.6216607282947706</v>
       </c>
       <c r="O13">
-        <v>2.566778610748145</v>
+        <v>2.207068315511037</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.328986692027854</v>
+        <v>3.569260345709608</v>
       </c>
       <c r="C14">
-        <v>0.3234579446696841</v>
+        <v>0.5048543803900429</v>
       </c>
       <c r="D14">
-        <v>0.1151624599336571</v>
+        <v>0.3350020414687407</v>
       </c>
       <c r="E14">
-        <v>0.1218254585509522</v>
+        <v>0.04019863096087928</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6042774299563973</v>
+        <v>0.6582438712377865</v>
       </c>
       <c r="H14">
-        <v>0.6868568450145602</v>
+        <v>0.3971787320079585</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2029653492409267</v>
+        <v>0.222143107589801</v>
       </c>
       <c r="M14">
-        <v>0.2740529282973867</v>
+        <v>0.6089278146407864</v>
       </c>
       <c r="N14">
-        <v>1.268308809571252</v>
+        <v>0.6261062354996554</v>
       </c>
       <c r="O14">
-        <v>2.563664038183987</v>
+        <v>2.178535114331027</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.317589287404928</v>
+        <v>3.529725079525178</v>
       </c>
       <c r="C15">
-        <v>0.3222448045583235</v>
+        <v>0.5011542459210148</v>
       </c>
       <c r="D15">
-        <v>0.1141316105075703</v>
+        <v>0.3311542670860916</v>
       </c>
       <c r="E15">
-        <v>0.1219423499086592</v>
+        <v>0.04035962169385954</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6033800453270999</v>
+        <v>0.6521813526349973</v>
       </c>
       <c r="H15">
-        <v>0.6868854648560614</v>
+        <v>0.3950474851575478</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2025218725958666</v>
+        <v>0.2200402061272797</v>
       </c>
       <c r="M15">
-        <v>0.2722030084672156</v>
+        <v>0.6022097737010128</v>
       </c>
       <c r="N15">
-        <v>1.269571717466242</v>
+        <v>0.6288565409201397</v>
       </c>
       <c r="O15">
-        <v>2.561788920004432</v>
+        <v>2.16117558041023</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.252310036525046</v>
+        <v>3.303659420763495</v>
       </c>
       <c r="C16">
-        <v>0.3152794824583793</v>
+        <v>0.479961235681543</v>
       </c>
       <c r="D16">
-        <v>0.1082349587113498</v>
+        <v>0.3092129954680303</v>
       </c>
       <c r="E16">
-        <v>0.1226250273631129</v>
+        <v>0.04130485845215937</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5983706484236251</v>
+        <v>0.6179758709609331</v>
       </c>
       <c r="H16">
-        <v>0.6871551169939636</v>
+        <v>0.3831270025867468</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2000075027778081</v>
+        <v>0.2080732667935052</v>
       </c>
       <c r="M16">
-        <v>0.2616202833108616</v>
+        <v>0.563825113907825</v>
       </c>
       <c r="N16">
-        <v>1.276960666269936</v>
+        <v>0.6450275435626551</v>
       </c>
       <c r="O16">
-        <v>2.551543497008623</v>
+        <v>2.063442011709327</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.212295356397703</v>
+        <v>3.165384912248385</v>
       </c>
       <c r="C17">
-        <v>0.3109947442065675</v>
+        <v>0.4669679661786006</v>
       </c>
       <c r="D17">
-        <v>0.1046271358196265</v>
+        <v>0.2958441862836025</v>
       </c>
       <c r="E17">
-        <v>0.1230552745516249</v>
+        <v>0.04190463870514183</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.595416216697302</v>
+        <v>0.5974498953584373</v>
       </c>
       <c r="H17">
-        <v>0.6874148111188134</v>
+        <v>0.376066108543057</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1984891711306744</v>
+        <v>0.2008036287166419</v>
       </c>
       <c r="M17">
-        <v>0.2551447328972856</v>
+        <v>0.5403725396290397</v>
       </c>
       <c r="N17">
-        <v>1.281628945010539</v>
+        <v>0.6553049915135958</v>
       </c>
       <c r="O17">
-        <v>2.54570422892877</v>
+        <v>2.004981080528722</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.189292173093975</v>
+        <v>3.085991135172264</v>
       </c>
       <c r="C18">
-        <v>0.3085260156953495</v>
+        <v>0.4594968049662214</v>
       </c>
       <c r="D18">
-        <v>0.1025555358821322</v>
+        <v>0.2881862442781795</v>
       </c>
       <c r="E18">
-        <v>0.1233069506979394</v>
+        <v>0.04225681016812999</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5937604601929962</v>
+        <v>0.5858042439000712</v>
       </c>
       <c r="H18">
-        <v>0.6875988261564885</v>
+        <v>0.372093842113884</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1976247613567352</v>
+        <v>0.196647432710833</v>
       </c>
       <c r="M18">
-        <v>0.2514263403722197</v>
+        <v>0.5269157859668141</v>
       </c>
       <c r="N18">
-        <v>1.284363775325737</v>
+        <v>0.6613440900913403</v>
       </c>
       <c r="O18">
-        <v>2.542509408329551</v>
+        <v>1.971881028303869</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.181505827328238</v>
+        <v>3.059132334718583</v>
       </c>
       <c r="C19">
-        <v>0.3076894199986384</v>
+        <v>0.4569675159104918</v>
       </c>
       <c r="D19">
-        <v>0.1018547333271016</v>
+        <v>0.2855985970760457</v>
       </c>
       <c r="E19">
-        <v>0.1233928871345107</v>
+        <v>0.0423772735219039</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5932073246213037</v>
+        <v>0.5818880307879368</v>
       </c>
       <c r="H19">
-        <v>0.6876670810867154</v>
+        <v>0.3707638484463445</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.197333616427116</v>
+        <v>0.1952444138766793</v>
       </c>
       <c r="M19">
-        <v>0.2501684233003019</v>
+        <v>0.522364926262469</v>
       </c>
       <c r="N19">
-        <v>1.285298288378939</v>
+        <v>0.663410453838452</v>
       </c>
       <c r="O19">
-        <v>2.541455813607115</v>
+        <v>1.96076185259551</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.216553734274498</v>
+        <v>3.180089906721321</v>
       </c>
       <c r="C20">
-        <v>0.3114513040512179</v>
+        <v>0.4683508763570217</v>
       </c>
       <c r="D20">
-        <v>0.1050108300343311</v>
+        <v>0.297264016686924</v>
       </c>
       <c r="E20">
-        <v>0.1230090384144162</v>
+        <v>0.04184004383034523</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5957262119905664</v>
+        <v>0.5996181492065062</v>
       </c>
       <c r="H20">
-        <v>0.6873835805528046</v>
+        <v>0.3768084645135303</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1986498800005876</v>
+        <v>0.2015748681567402</v>
       </c>
       <c r="M20">
-        <v>0.2558334289915862</v>
+        <v>0.5428656840789117</v>
       </c>
       <c r="N20">
-        <v>1.281126848851883</v>
+        <v>0.6541976385622803</v>
       </c>
       <c r="O20">
-        <v>2.546308876498301</v>
+        <v>2.011149457065102</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.33445265514797</v>
+        <v>3.58822780063781</v>
       </c>
       <c r="C21">
-        <v>0.32403944103919</v>
+        <v>0.5066289158715733</v>
       </c>
       <c r="D21">
-        <v>0.1156569699299581</v>
+        <v>0.3368491585642062</v>
       </c>
       <c r="E21">
-        <v>0.1217696326544546</v>
+        <v>0.04012183695606453</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6047101076249675</v>
+        <v>0.6611607986003918</v>
       </c>
       <c r="H21">
-        <v>0.6868449897228857</v>
+        <v>0.3982060376516046</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.203178485576629</v>
+        <v>0.2231530369913344</v>
       </c>
       <c r="M21">
-        <v>0.2749403384650222</v>
+        <v>0.6121514002380977</v>
       </c>
       <c r="N21">
-        <v>1.267705894956784</v>
+        <v>0.6247947718063287</v>
       </c>
       <c r="O21">
-        <v>2.564572059286832</v>
+        <v>2.18689129649826</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.411605882030585</v>
+        <v>3.856469941485329</v>
       </c>
       <c r="C22">
-        <v>0.3322274412425941</v>
+        <v>0.5316810017805551</v>
       </c>
       <c r="D22">
-        <v>0.1226461559016059</v>
+        <v>0.3630474902453926</v>
       </c>
       <c r="E22">
-        <v>0.120997035324188</v>
+        <v>0.0390656021005551</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.6109706522229885</v>
+        <v>0.7029838578441741</v>
       </c>
       <c r="H22">
-        <v>0.6868014757281173</v>
+        <v>0.4130616482364786</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2062170049044312</v>
+        <v>0.2375061883441134</v>
       </c>
       <c r="M22">
-        <v>0.2874813075087488</v>
+        <v>0.6577764424541712</v>
       </c>
       <c r="N22">
-        <v>1.259377608257928</v>
+        <v>0.6067909789424917</v>
       </c>
       <c r="O22">
-        <v>2.577969006641183</v>
+        <v>2.306957842668822</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.370419096376622</v>
+        <v>3.713153030917681</v>
       </c>
       <c r="C23">
-        <v>0.3278609817402014</v>
+        <v>0.5183062270958771</v>
       </c>
       <c r="D23">
-        <v>0.1189130335504842</v>
+        <v>0.3490326311162022</v>
       </c>
       <c r="E23">
-        <v>0.1214059633594387</v>
+        <v>0.03962309746248227</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6075936257632009</v>
+        <v>0.680506803932488</v>
       </c>
       <c r="H23">
-        <v>0.6867964749266804</v>
+        <v>0.4050492435907813</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2045880973723797</v>
+        <v>0.2298213507996962</v>
       </c>
       <c r="M23">
-        <v>0.2807831322068424</v>
+        <v>0.633391446227165</v>
       </c>
       <c r="N23">
-        <v>1.263782029842361</v>
+        <v>0.6162852106016672</v>
       </c>
       <c r="O23">
-        <v>2.5706850090464</v>
+        <v>2.242372487524705</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.21462851595993</v>
+        <v>3.173441463687084</v>
       </c>
       <c r="C24">
-        <v>0.3112449100769652</v>
+        <v>0.467725666435399</v>
       </c>
       <c r="D24">
-        <v>0.1048373538266816</v>
+        <v>0.2966220247684248</v>
       </c>
       <c r="E24">
-        <v>0.1230299283110554</v>
+        <v>0.041869224309111</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5955859298572364</v>
+        <v>0.5986374007101034</v>
       </c>
       <c r="H24">
-        <v>0.6873975917594635</v>
+        <v>0.3764725748225288</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1985771970426384</v>
+        <v>0.2012261187857831</v>
       </c>
       <c r="M24">
-        <v>0.2555220554926407</v>
+        <v>0.5417384516789241</v>
       </c>
       <c r="N24">
-        <v>1.281353687739319</v>
+        <v>0.6546978672975996</v>
       </c>
       <c r="O24">
-        <v>2.546035009950856</v>
+        <v>2.008359151518363</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.047054510119096</v>
+        <v>2.596418092405372</v>
       </c>
       <c r="C25">
-        <v>0.2931595183826801</v>
+        <v>0.4132439036338837</v>
       </c>
       <c r="D25">
-        <v>0.08978916972237982</v>
+        <v>0.2412670138755573</v>
       </c>
       <c r="E25">
-        <v>0.1249426074706568</v>
+        <v>0.04456569089503226</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.584298054283849</v>
+        <v>0.5163714138541593</v>
       </c>
       <c r="H25">
-        <v>0.6893705705227262</v>
+        <v>0.34901021558629</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.192433720287859</v>
+        <v>0.1713278018809845</v>
       </c>
       <c r="M25">
-        <v>0.2285106602816001</v>
+        <v>0.4440936064696857</v>
       </c>
       <c r="N25">
-        <v>1.302210073419943</v>
+        <v>0.7009798913703307</v>
       </c>
       <c r="O25">
-        <v>2.525705578130641</v>
+        <v>1.775747673023204</v>
       </c>
     </row>
   </sheetData>
